--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f411_bc_chi_phi_theo_phong_ban_va_phap_nhan.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f411_bc_chi_phi_theo_phong_ban_va_phap_nhan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Từ ngày  &lt;tu_ngay&gt;             Đến ngày &lt;den_ngay&gt;  </t>
-  </si>
-  <si>
-    <t>Trạng thái:    &lt;trang_thai&gt;</t>
   </si>
   <si>
     <t>Tổng bill: &lt;tong_bill&gt;</t>
@@ -501,7 +498,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -540,20 +537,18 @@
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
